--- a/CoffeCart/src/test/java/resources/Data Driven Testing - Coffee Cart.xlsx
+++ b/CoffeCart/src/test/java/resources/Data Driven Testing - Coffee Cart.xlsx
@@ -22,7 +22,7 @@
     <t>Raja Bhamra</t>
   </si>
   <si>
-    <t>raja@gmail,com</t>
+    <t>raja@gmail.com</t>
   </si>
   <si>
     <t>Jake Moss</t>
